--- a/data/coded_segments/md_4_2.xlsx
+++ b/data/coded_segments/md_4_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB70EE5-B045-0D4B-8A63-5A2A9A3C73CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64C463D2-9074-D444-A25B-4B29840A3C31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="580">
   <si>
     <t>Color</t>
   </si>
@@ -1706,9 +1706,6 @@
     <t>11/8/18 11:40:00</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>3: 4744</t>
   </si>
   <si>
@@ -1718,9 +1715,6 @@
     <t>Trimethoprim/sulfamethoxazole</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>3: 4780</t>
   </si>
   <si>
@@ -1730,9 +1724,6 @@
     <t>Metronidazole</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>1: 3225</t>
   </si>
   <si>
@@ -1773,6 +1764,12 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/29/19 16:47:09</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9236,19 +9233,19 @@
         <v>385</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H171" s="3">
         <v>0</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="J171" s="3">
         <v>11</v>
@@ -9280,16 +9277,16 @@
         <v>42</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H172" s="3">
         <v>0</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="J172" s="3">
         <v>11</v>
@@ -9318,19 +9315,19 @@
         <v>385</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>18</v>
+        <v>550</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H173" s="3">
         <v>0</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="J173" s="3">
         <v>11</v>
@@ -9359,25 +9356,25 @@
         <v>385</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>42</v>
+        <v>550</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H174" s="3">
         <v>0</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="J174" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K174" s="4">
-        <v>3.193E-2</v>
+        <v>1.1611E-2</v>
       </c>
       <c r="L174" s="1" t="s">
         <v>502</v>
@@ -9400,25 +9397,25 @@
         <v>385</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>550</v>
+        <v>364</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H175" s="3">
         <v>0</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="J175" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K175" s="4">
-        <v>3.193E-2</v>
+        <v>1.1611E-2</v>
       </c>
       <c r="L175" s="1" t="s">
         <v>502</v>
@@ -9441,31 +9438,31 @@
         <v>385</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>550</v>
+        <v>42</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H176" s="3">
         <v>0</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="J176" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K176" s="4">
-        <v>1.1611E-2</v>
+        <v>2.6124999999999999E-2</v>
       </c>
       <c r="L176" s="1" t="s">
         <v>502</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9482,31 +9479,31 @@
         <v>385</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="H177" s="3">
         <v>0</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="J177" s="3">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="K177" s="4">
-        <v>1.1611E-2</v>
+        <v>8.4180000000000005E-2</v>
       </c>
       <c r="L177" s="1" t="s">
         <v>502</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9526,22 +9523,22 @@
         <v>42</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="H178" s="3">
         <v>0</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="J178" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K178" s="4">
-        <v>2.6124999999999999E-2</v>
+        <v>3.7735999999999999E-2</v>
       </c>
       <c r="L178" s="1" t="s">
         <v>502</v>
@@ -9564,31 +9561,31 @@
         <v>385</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>558</v>
+        <v>31</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="H179" s="3">
         <v>0</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="J179" s="3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K179" s="4">
-        <v>2.6124999999999999E-2</v>
+        <v>6.0957999999999998E-2</v>
       </c>
       <c r="L179" s="1" t="s">
         <v>502</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9605,31 +9602,31 @@
         <v>385</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="H180" s="3">
         <v>0</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="J180" s="3">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="K180" s="4">
-        <v>8.4180000000000005E-2</v>
+        <v>1.1611E-2</v>
       </c>
       <c r="L180" s="1" t="s">
         <v>502</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9646,31 +9643,31 @@
         <v>385</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>562</v>
+        <v>155</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="H181" s="3">
         <v>0</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="J181" s="3">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K181" s="4">
-        <v>8.4180000000000005E-2</v>
+        <v>2.3222E-2</v>
       </c>
       <c r="L181" s="1" t="s">
         <v>502</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9687,31 +9684,31 @@
         <v>385</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="H182" s="3">
         <v>0</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="J182" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K182" s="4">
-        <v>3.7735999999999999E-2</v>
+        <v>5.8060000000000004E-3</v>
       </c>
       <c r="L182" s="1" t="s">
         <v>502</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9725,198 +9722,34 @@
         <v>14</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>566</v>
+        <v>42</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>563</v>
+        <v>376</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>564</v>
+        <v>377</v>
       </c>
       <c r="H183" s="3">
         <v>0</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>565</v>
+        <v>356</v>
       </c>
       <c r="J183" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K183" s="4">
-        <v>3.7735999999999999E-2</v>
+        <v>0.12404149751917004</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>502</v>
+        <v>578</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="H184" s="3">
-        <v>0</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="J184" s="3">
-        <v>21</v>
-      </c>
-      <c r="K184" s="4">
-        <v>6.0957999999999998E-2</v>
-      </c>
-      <c r="L184" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="M184" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="H185" s="3">
-        <v>0</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="J185" s="3">
-        <v>4</v>
-      </c>
-      <c r="K185" s="4">
-        <v>1.1611E-2</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="M185" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="H186" s="3">
-        <v>0</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J186" s="3">
-        <v>8</v>
-      </c>
-      <c r="K186" s="4">
-        <v>2.3222E-2</v>
-      </c>
-      <c r="L186" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="M186" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G187" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="H187" s="3">
-        <v>0</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="J187" s="3">
-        <v>2</v>
-      </c>
-      <c r="K187" s="4">
-        <v>5.8060000000000004E-3</v>
-      </c>
-      <c r="L187" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="M187" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/md_4_2.xlsx
+++ b/data/coded_segments/md_4_2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\amr-db\data\coded_segments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF589E3-24A9-4A49-9D17-AE0987A5B5A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4098" windowHeight="3672"/>
+    <workbookView xWindow="0" yWindow="6260" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="593">
   <si>
     <t>Color</t>
   </si>
@@ -81,7 +82,7 @@
     <t>mdualeh</t>
   </si>
   <si>
-    <t>8/3/2018 19:27:00</t>
+    <t>8/3/18 19:27:00</t>
   </si>
   <si>
     <t>22121</t>
@@ -99,7 +100,7 @@
     <t>73</t>
   </si>
   <si>
-    <t>8/3/2018 19:28:00</t>
+    <t>8/3/18 19:28:00</t>
   </si>
   <si>
     <t>Patient:Sex</t>
@@ -135,7 +136,7 @@
     <t>61</t>
   </si>
   <si>
-    <t>8/3/2018 19:29:00</t>
+    <t>8/3/18 19:29:00</t>
   </si>
   <si>
     <t>1: 4239</t>
@@ -168,7 +169,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>8/3/2018 19:31:00</t>
+    <t>8/3/18 19:31:00</t>
   </si>
   <si>
     <t>21506</t>
@@ -183,7 +184,7 @@
     <t>First</t>
   </si>
   <si>
-    <t>8/3/2018 19:32:00</t>
+    <t>8/3/18 19:32:00</t>
   </si>
   <si>
     <t>21464</t>
@@ -225,7 +226,7 @@
     <t>amoxicillin</t>
   </si>
   <si>
-    <t>8/3/2018 19:33:00</t>
+    <t>8/3/18 19:33:00</t>
   </si>
   <si>
     <t>1: 1626</t>
@@ -255,7 +256,7 @@
     <t>Actinobaculum schaalii</t>
   </si>
   <si>
-    <t>8/3/2018 19:34:00</t>
+    <t>8/3/18 19:34:00</t>
   </si>
   <si>
     <t>2: 1351</t>
@@ -273,7 +274,7 @@
     <t>2: 1380</t>
   </si>
   <si>
-    <t>8/3/2018 19:35:00</t>
+    <t>8/3/18 19:35:00</t>
   </si>
   <si>
     <t>Location:Country</t>
@@ -321,7 +322,7 @@
     <t>Conclusions</t>
   </si>
   <si>
-    <t>8/3/2018 19:36:00</t>
+    <t>8/3/18 19:36:00</t>
   </si>
   <si>
     <t>Exclusion: not full text article</t>
@@ -360,7 +361,7 @@
     <t>January 2007 through June 2008</t>
   </si>
   <si>
-    <t>8/3/2018 19:37:00</t>
+    <t>8/3/18 19:37:00</t>
   </si>
   <si>
     <t>19444</t>
@@ -390,7 +391,7 @@
     <t>Isolate</t>
   </si>
   <si>
-    <t>8/3/2018 19:38:00</t>
+    <t>8/3/18 19:38:00</t>
   </si>
   <si>
     <t>19121</t>
@@ -417,7 +418,7 @@
     <t>OXA-23-producing</t>
   </si>
   <si>
-    <t>8/3/2018 19:39:00</t>
+    <t>8/3/18 19:39:00</t>
   </si>
   <si>
     <t>18158</t>
@@ -433,7 +434,7 @@
 pneumoniae</t>
   </si>
   <si>
-    <t>8/3/2018 19:41:00</t>
+    <t>8/3/18 19:41:00</t>
   </si>
   <si>
     <t>Bacteria:Strain</t>
@@ -463,7 +464,7 @@
     <t>1: 2330</t>
   </si>
   <si>
-    <t>8/3/2018 19:42:00</t>
+    <t>8/3/18 19:42:00</t>
   </si>
   <si>
     <t>1: 2350</t>
@@ -484,7 +485,7 @@
     <t>23</t>
   </si>
   <si>
-    <t>8/3/2018 19:43:00</t>
+    <t>8/3/18 19:43:00</t>
   </si>
   <si>
     <t>Event month</t>
@@ -551,7 +552,7 @@
 ems</t>
   </si>
   <si>
-    <t>8/3/2018 19:44:00</t>
+    <t>8/3/18 19:44:00</t>
   </si>
   <si>
     <t>2: 1378</t>
@@ -573,7 +574,7 @@
 penem</t>
   </si>
   <si>
-    <t>8/3/2018 19:45:00</t>
+    <t>8/3/18 19:45:00</t>
   </si>
   <si>
     <t>17257</t>
@@ -597,7 +598,7 @@
     <t>50 isolates</t>
   </si>
   <si>
-    <t>8/3/2018 19:48:00</t>
+    <t>8/3/18 19:48:00</t>
   </si>
   <si>
     <t>16713</t>
@@ -612,7 +613,7 @@
     <t>Enterococcus faecium</t>
   </si>
   <si>
-    <t>8/3/2018 19:49:00</t>
+    <t>8/3/18 19:49:00</t>
   </si>
   <si>
     <t>1: 4674</t>
@@ -661,7 +662,7 @@
     <t>58</t>
   </si>
   <si>
-    <t>8/3/2018 19:50:00</t>
+    <t>8/3/18 19:50:00</t>
   </si>
   <si>
     <t>1: 1849</t>
@@ -709,7 +710,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>8/3/2018 19:51:00</t>
+    <t>8/3/18 19:51:00</t>
   </si>
   <si>
     <t>1: 3202</t>
@@ -787,7 +788,7 @@
     <t>died</t>
   </si>
   <si>
-    <t>8/3/2018 19:52:00</t>
+    <t>8/3/18 19:52:00</t>
   </si>
   <si>
     <t>1: 3163</t>
@@ -820,7 +821,7 @@
     <t>first in Malaysia</t>
   </si>
   <si>
-    <t>8/3/2018 19:53:00</t>
+    <t>8/3/18 19:53:00</t>
   </si>
   <si>
     <t>16618</t>
@@ -853,7 +854,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>8/3/2018 19:55:00</t>
+    <t>8/3/18 19:55:00</t>
   </si>
   <si>
     <t>266</t>
@@ -877,7 +878,7 @@
     <t>Helicobacter</t>
   </si>
   <si>
-    <t>8/3/2018 19:56:00</t>
+    <t>8/3/18 19:56:00</t>
   </si>
   <si>
     <t>3325</t>
@@ -904,7 +905,7 @@
     <t>692 isolate</t>
   </si>
   <si>
-    <t>8/3/2018 19:57:00</t>
+    <t>8/3/18 19:57:00</t>
   </si>
   <si>
     <t>5265</t>
@@ -979,7 +980,7 @@
     <t>vision loss</t>
   </si>
   <si>
-    <t>8/3/2018 19:58:00</t>
+    <t>8/3/18 19:58:00</t>
   </si>
   <si>
     <t>1: 4379</t>
@@ -991,7 +992,7 @@
     <t>levofloxacin</t>
   </si>
   <si>
-    <t>8/3/2018 19:59:00</t>
+    <t>8/3/18 19:59:00</t>
   </si>
   <si>
     <t>5500</t>
@@ -1009,7 +1010,7 @@
     <t>LETTERS</t>
   </si>
   <si>
-    <t>8/3/2018 20:00:00</t>
+    <t>8/3/18 20:00:00</t>
   </si>
   <si>
     <t>13804</t>
@@ -1024,7 +1025,7 @@
     <t>Enterococcus gallinarum</t>
   </si>
   <si>
-    <t>8/3/2018 20:01:00</t>
+    <t>8/3/18 20:01:00</t>
   </si>
   <si>
     <t>1: 2235</t>
@@ -1051,7 +1052,7 @@
     <t>cerebrovascular accident</t>
   </si>
   <si>
-    <t>8/3/2018 20:02:00</t>
+    <t>8/3/18 20:02:00</t>
   </si>
   <si>
     <t>1: 2411</t>
@@ -1115,7 +1116,7 @@
     <t>gentamicin</t>
   </si>
   <si>
-    <t>8/3/2018 20:03:00</t>
+    <t>8/3/18 20:03:00</t>
   </si>
   <si>
     <t>MIC</t>
@@ -1160,7 +1161,7 @@
     <t>1: 4431</t>
   </si>
   <si>
-    <t>8/3/2018 20:04:00</t>
+    <t>8/3/18 20:04:00</t>
   </si>
   <si>
     <t>1: 694</t>
@@ -1193,7 +1194,7 @@
     <t>This is the first report of a C. botulinum isolate resistant to penicillins.</t>
   </si>
   <si>
-    <t>8/3/2018 20:05:00</t>
+    <t>8/3/18 20:05:00</t>
   </si>
   <si>
     <t>1: 1051</t>
@@ -1247,7 +1248,7 @@
     <t>b-lactams</t>
   </si>
   <si>
-    <t>8/3/2018 20:06:00</t>
+    <t>8/3/18 20:06:00</t>
   </si>
   <si>
     <t>2: 6459</t>
@@ -1259,7 +1260,7 @@
     <t>224-13</t>
   </si>
   <si>
-    <t>8/3/2018 20:07:00</t>
+    <t>8/3/18 20:07:00</t>
   </si>
   <si>
     <t>3: 4387</t>
@@ -1271,7 +1272,7 @@
     <t>Amoxicillin</t>
   </si>
   <si>
-    <t>8/3/2018 20:08:00</t>
+    <t>8/3/18 20:08:00</t>
   </si>
   <si>
     <t>3: 4401</t>
@@ -1295,7 +1296,7 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>8/3/2018 20:10:00</t>
+    <t>8/3/18 20:10:00</t>
   </si>
   <si>
     <t>1: 280</t>
@@ -1334,7 +1335,7 @@
     <t>Ampicillin</t>
   </si>
   <si>
-    <t>8/3/2018 20:11:00</t>
+    <t>8/3/18 20:11:00</t>
   </si>
   <si>
     <t>2: 6150</t>
@@ -1373,7 +1374,7 @@
     <t>Trimethoprim-sulfamethoxazole</t>
   </si>
   <si>
-    <t>8/3/2018 20:12:00</t>
+    <t>8/3/18 20:12:00</t>
   </si>
   <si>
     <t>2: 6546</t>
@@ -1397,7 +1398,7 @@
     <t>Campylobacter volucris</t>
   </si>
   <si>
-    <t>8/3/2018 20:13:00</t>
+    <t>8/3/18 20:13:00</t>
   </si>
   <si>
     <t>1: 653</t>
@@ -1458,7 +1459,7 @@
     <t>First Case</t>
   </si>
   <si>
-    <t>8/3/2018 20:14:00</t>
+    <t>8/3/18 20:14:00</t>
   </si>
   <si>
     <t>11102</t>
@@ -1473,7 +1474,7 @@
     <t>Antimicrobial susceptibility testing</t>
   </si>
   <si>
-    <t>8/3/2018 20:15:00</t>
+    <t>8/3/18 20:15:00</t>
   </si>
   <si>
     <t>10859</t>
@@ -1482,7 +1483,7 @@
     <t>1: 100</t>
   </si>
   <si>
-    <t>8/3/2018 20:32:00</t>
+    <t>8/3/18 20:32:00</t>
   </si>
   <si>
     <t>9322</t>
@@ -1536,7 +1537,7 @@
     <t>Sonia</t>
   </si>
   <si>
-    <t>10/15/2018 14:43:00</t>
+    <t>10/15/18 14:43:00</t>
   </si>
   <si>
     <t>1: 1865</t>
@@ -1563,7 +1564,7 @@
     <t>1: 1976</t>
   </si>
   <si>
-    <t>10/15/2018 14:44:00</t>
+    <t>10/15/18 14:44:00</t>
   </si>
   <si>
     <t>1: 1983</t>
@@ -1596,7 +1597,7 @@
 reported NDM isolate in Paraná State. </t>
   </si>
   <si>
-    <t>10/15/2018 14:46:00</t>
+    <t>10/15/18 14:46:00</t>
   </si>
   <si>
     <t>1: 66</t>
@@ -1605,7 +1606,7 @@
     <t>Type 25</t>
   </si>
   <si>
-    <t>10/15/2018 14:47:00</t>
+    <t>10/15/18 14:47:00</t>
   </si>
   <si>
     <t>1: 2291</t>
@@ -1618,7 +1619,7 @@
 sistant</t>
   </si>
   <si>
-    <t>10/15/2018 14:49:00</t>
+    <t>10/15/18 14:49:00</t>
   </si>
   <si>
     <t>1: 2413</t>
@@ -1627,7 +1628,7 @@
     <t>1: 2422</t>
   </si>
   <si>
-    <t>10/15/2018 14:52:00</t>
+    <t>10/15/18 14:52:00</t>
   </si>
   <si>
     <t>3: 4366</t>
@@ -1639,7 +1640,7 @@
     <t>Penicillin</t>
   </si>
   <si>
-    <t>11/8/2018 11:38:00</t>
+    <t>11/8/18 11:38:00</t>
   </si>
   <si>
     <t>3: 4379</t>
@@ -1660,7 +1661,7 @@
     <t>Ticarcillin</t>
   </si>
   <si>
-    <t>11/8/2018 11:39:00</t>
+    <t>11/8/18 11:39:00</t>
   </si>
   <si>
     <t>3: 4460</t>
@@ -1702,7 +1703,7 @@
     <t>Kanamycin</t>
   </si>
   <si>
-    <t>11/8/2018 11:40:00</t>
+    <t>11/8/18 11:40:00</t>
   </si>
   <si>
     <t>3: 4744</t>
@@ -1732,7 +1733,7 @@
     <t>Clostridium botulinum</t>
   </si>
   <si>
-    <t>11/8/2018 14:29:00</t>
+    <t>11/8/18 14:29:00</t>
   </si>
   <si>
     <t>2: 2811</t>
@@ -1744,7 +1745,7 @@
     <t>2013</t>
   </si>
   <si>
-    <t>11/12/2018 13:33:00</t>
+    <t>11/12/18 13:33:00</t>
   </si>
   <si>
     <t>2: 2802</t>
@@ -1768,14 +1769,54 @@
     <t>chen</t>
   </si>
   <si>
-    <t>1/29/2019 16:47:09</t>
+    <t>1/29/19 16:47:09</t>
+  </si>
+  <si>
+    <t>1: 1314</t>
+  </si>
+  <si>
+    <t>1: 1319</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>emmamendelsohn</t>
+  </si>
+  <si>
+    <t>8/22/19 14:19:16</t>
+  </si>
+  <si>
+    <t>1: 1326</t>
+  </si>
+  <si>
+    <t>1: 1331</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>8/22/19 14:19:20</t>
+  </si>
+  <si>
+    <t>1: 1213</t>
+  </si>
+  <si>
+    <t>1: 1275</t>
+  </si>
+  <si>
+    <t>Tri-Service General Hospital,  
+National Defense Medical Center</t>
+  </si>
+  <si>
+    <t>8/22/19 14:19:48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1783,19 +1824,16 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1956,7 +1994,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1968,7 +2006,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2015,6 +2053,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2050,6 +2105,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2201,23 +2273,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M183"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.68359375" customWidth="1"/>
-    <col min="2" max="4" width="22.68359375" customWidth="1"/>
-    <col min="5" max="5" width="50.68359375" customWidth="1"/>
-    <col min="6" max="8" width="22.68359375" customWidth="1"/>
-    <col min="9" max="9" width="50.68359375" customWidth="1"/>
-    <col min="10" max="10" width="7.68359375" customWidth="1"/>
-    <col min="11" max="13" width="22.68359375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" customWidth="1"/>
+    <col min="6" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="13" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2299,7 +2371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2340,7 +2412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2381,7 +2453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -2422,7 +2494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2463,7 +2535,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2504,7 +2576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2545,7 +2617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2586,7 +2658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2627,7 +2699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2668,7 +2740,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2709,7 +2781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2750,7 +2822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2791,7 +2863,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2832,7 +2904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2873,7 +2945,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6">
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2914,7 +2986,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6">
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2955,7 +3027,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6">
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2996,7 +3068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -3037,7 +3109,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -3078,7 +3150,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6">
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -3119,7 +3191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3160,7 +3232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6">
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -3201,7 +3273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6">
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -3242,7 +3314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6">
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -3283,7 +3355,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6">
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -3324,7 +3396,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6">
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -3365,7 +3437,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.6">
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -3406,7 +3478,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6">
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -3447,7 +3519,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="25.8">
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -3488,7 +3560,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6">
+    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -3529,7 +3601,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6">
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -3570,7 +3642,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6">
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -3611,7 +3683,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6">
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
@@ -3652,7 +3724,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6">
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
@@ -3693,7 +3765,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6">
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -3734,7 +3806,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6">
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -3775,7 +3847,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6">
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -3816,7 +3888,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6">
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>13</v>
       </c>
@@ -3857,7 +3929,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6">
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -3898,7 +3970,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="25.8">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -3939,7 +4011,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6">
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>13</v>
       </c>
@@ -3980,7 +4052,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="25.8">
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
@@ -4021,7 +4093,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6">
+    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -4062,7 +4134,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6">
+    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>13</v>
       </c>
@@ -4103,7 +4175,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6">
+    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -4144,7 +4216,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6">
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -4185,7 +4257,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6">
+    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
@@ -4226,7 +4298,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -4267,7 +4339,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="25.8">
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
@@ -4308,7 +4380,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6">
+    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>13</v>
       </c>
@@ -4349,7 +4421,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6">
+    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
@@ -4390,7 +4462,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6">
+    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>13</v>
       </c>
@@ -4431,7 +4503,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6">
+    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -4472,7 +4544,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6">
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>13</v>
       </c>
@@ -4513,7 +4585,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6">
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>13</v>
       </c>
@@ -4554,7 +4626,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6">
+    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -4595,7 +4667,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6">
+    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>13</v>
       </c>
@@ -4636,7 +4708,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>13</v>
       </c>
@@ -4677,7 +4749,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6">
+    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>13</v>
       </c>
@@ -4718,7 +4790,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6">
+    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
@@ -4759,7 +4831,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6">
+    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -4800,7 +4872,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6">
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
@@ -4841,7 +4913,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6">
+    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -4882,7 +4954,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6">
+    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -4923,7 +4995,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6">
+    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
@@ -4964,7 +5036,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6">
+    <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -5005,7 +5077,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6">
+    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>13</v>
       </c>
@@ -5046,7 +5118,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6">
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
@@ -5087,7 +5159,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6">
+    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
@@ -5128,7 +5200,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6">
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -5169,7 +5241,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6">
+    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>13</v>
       </c>
@@ -5210,7 +5282,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6">
+    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>13</v>
       </c>
@@ -5251,7 +5323,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6">
+    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -5292,7 +5364,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6">
+    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>13</v>
       </c>
@@ -5333,7 +5405,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>13</v>
       </c>
@@ -5374,7 +5446,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6">
+    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>13</v>
       </c>
@@ -5415,7 +5487,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.6">
+    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -5456,7 +5528,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.6">
+    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>13</v>
       </c>
@@ -5497,7 +5569,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.6">
+    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
@@ -5538,7 +5610,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.6">
+    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -5579,7 +5651,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.6">
+    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>13</v>
       </c>
@@ -5620,7 +5692,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.6">
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>13</v>
       </c>
@@ -5661,7 +5733,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.6">
+    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>13</v>
       </c>
@@ -5702,7 +5774,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.6">
+    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>13</v>
       </c>
@@ -5743,7 +5815,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.6">
+    <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -5784,7 +5856,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.6">
+    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>13</v>
       </c>
@@ -5825,7 +5897,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.6">
+    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
@@ -5866,7 +5938,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.6">
+    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>13</v>
       </c>
@@ -5907,7 +5979,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.6">
+    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>13</v>
       </c>
@@ -5948,7 +6020,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.6">
+    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>13</v>
       </c>
@@ -5989,7 +6061,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.6">
+    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>13</v>
       </c>
@@ -6030,7 +6102,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.6">
+    <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>13</v>
       </c>
@@ -6071,7 +6143,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.6">
+    <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -6112,7 +6184,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="25.8">
+    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -6153,7 +6225,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.6">
+    <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>13</v>
       </c>
@@ -6194,7 +6266,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.6">
+    <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>13</v>
       </c>
@@ -6235,7 +6307,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.6">
+    <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>13</v>
       </c>
@@ -6276,7 +6348,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.6">
+    <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>13</v>
       </c>
@@ -6317,7 +6389,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.6">
+    <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>13</v>
       </c>
@@ -6358,7 +6430,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.6">
+    <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>13</v>
       </c>
@@ -6399,7 +6471,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.6">
+    <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -6440,7 +6512,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.6">
+    <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>13</v>
       </c>
@@ -6481,7 +6553,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.6">
+    <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>13</v>
       </c>
@@ -6522,7 +6594,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.6">
+    <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>13</v>
       </c>
@@ -6563,7 +6635,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.6">
+    <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>13</v>
       </c>
@@ -6604,7 +6676,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.6">
+    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>13</v>
       </c>
@@ -6645,7 +6717,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.6">
+    <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>13</v>
       </c>
@@ -6686,7 +6758,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.6">
+    <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
@@ -6727,7 +6799,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.6">
+    <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -6768,7 +6840,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.6">
+    <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>13</v>
       </c>
@@ -6809,7 +6881,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.6">
+    <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
@@ -6850,7 +6922,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.6">
+    <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
@@ -6891,7 +6963,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.6">
+    <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
@@ -6932,7 +7004,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.6">
+    <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
@@ -6973,7 +7045,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.6">
+    <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>13</v>
       </c>
@@ -7014,7 +7086,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.6">
+    <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>13</v>
       </c>
@@ -7055,7 +7127,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.6">
+    <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -7096,7 +7168,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.6">
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
@@ -7137,7 +7209,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.6">
+    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>13</v>
       </c>
@@ -7178,7 +7250,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.6">
+    <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>13</v>
       </c>
@@ -7219,7 +7291,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.6">
+    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
@@ -7260,7 +7332,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.6">
+    <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
@@ -7301,7 +7373,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.6">
+    <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
@@ -7342,7 +7414,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.6">
+    <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>13</v>
       </c>
@@ -7383,7 +7455,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.6">
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -7424,7 +7496,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.6">
+    <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
@@ -7465,7 +7537,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.6">
+    <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
@@ -7506,7 +7578,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.6">
+    <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
@@ -7547,7 +7619,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.6">
+    <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>13</v>
       </c>
@@ -7588,7 +7660,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.6">
+    <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
@@ -7629,7 +7701,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.6">
+    <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
@@ -7670,7 +7742,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.6">
+    <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>13</v>
       </c>
@@ -7711,7 +7783,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.6">
+    <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -7752,7 +7824,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.6">
+    <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>13</v>
       </c>
@@ -7793,7 +7865,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.6">
+    <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>13</v>
       </c>
@@ -7834,7 +7906,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.6">
+    <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>13</v>
       </c>
@@ -7875,7 +7947,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.6">
+    <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
@@ -7916,7 +7988,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="25.8">
+    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>13</v>
       </c>
@@ -7957,7 +8029,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.6">
+    <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>13</v>
       </c>
@@ -7998,7 +8070,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.6">
+    <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
@@ -8039,7 +8111,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.6">
+    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>13</v>
       </c>
@@ -8080,7 +8152,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.6">
+    <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>13</v>
       </c>
@@ -8121,7 +8193,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.6">
+    <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>13</v>
       </c>
@@ -8162,7 +8234,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.6">
+    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>13</v>
       </c>
@@ -8203,7 +8275,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.6">
+    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>13</v>
       </c>
@@ -8244,7 +8316,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.6">
+    <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>13</v>
       </c>
@@ -8285,7 +8357,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.6">
+    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>13</v>
       </c>
@@ -8326,7 +8398,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.6">
+    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>13</v>
       </c>
@@ -8367,7 +8439,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.6">
+    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
@@ -8408,7 +8480,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.6">
+    <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>13</v>
       </c>
@@ -8449,7 +8521,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.6">
+    <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>13</v>
       </c>
@@ -8490,7 +8562,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.6">
+    <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>13</v>
       </c>
@@ -8531,7 +8603,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.6">
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>13</v>
       </c>
@@ -8572,7 +8644,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.6">
+    <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>13</v>
       </c>
@@ -8613,7 +8685,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.6">
+    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>13</v>
       </c>
@@ -8654,7 +8726,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="51.6">
+    <row r="158" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>13</v>
       </c>
@@ -8695,7 +8767,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.6">
+    <row r="159" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -8736,7 +8808,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="25.8">
+    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>13</v>
       </c>
@@ -8777,7 +8849,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.6">
+    <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>13</v>
       </c>
@@ -8818,7 +8890,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.6">
+    <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>13</v>
       </c>
@@ -8859,7 +8931,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.6">
+    <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>13</v>
       </c>
@@ -8900,7 +8972,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.6">
+    <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>13</v>
       </c>
@@ -8941,7 +9013,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.6">
+    <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>13</v>
       </c>
@@ -8982,7 +9054,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.6">
+    <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>13</v>
       </c>
@@ -9023,7 +9095,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.6">
+    <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -9064,7 +9136,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.6">
+    <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>13</v>
       </c>
@@ -9105,7 +9177,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.6">
+    <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>13</v>
       </c>
@@ -9146,7 +9218,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.6">
+    <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
@@ -9187,7 +9259,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.6">
+    <row r="171" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>13</v>
       </c>
@@ -9228,7 +9300,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.6">
+    <row r="172" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>13</v>
       </c>
@@ -9269,7 +9341,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.6">
+    <row r="173" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>13</v>
       </c>
@@ -9310,7 +9382,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.6">
+    <row r="174" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>13</v>
       </c>
@@ -9351,7 +9423,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.6">
+    <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -9392,7 +9464,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.6">
+    <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>13</v>
       </c>
@@ -9433,7 +9505,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.6">
+    <row r="177" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>13</v>
       </c>
@@ -9474,7 +9546,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.6">
+    <row r="178" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>13</v>
       </c>
@@ -9515,7 +9587,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.6">
+    <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>13</v>
       </c>
@@ -9556,7 +9628,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.6">
+    <row r="180" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>13</v>
       </c>
@@ -9597,7 +9669,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.6">
+    <row r="181" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>13</v>
       </c>
@@ -9638,7 +9710,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.6">
+    <row r="182" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>13</v>
       </c>
@@ -9679,7 +9751,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.6">
+    <row r="183" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>13</v>
       </c>
@@ -9718,6 +9790,129 @@
       </c>
       <c r="M183" s="1" t="s">
         <v>579</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H184" s="3">
+        <v>0</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J184" s="3">
+        <v>6</v>
+      </c>
+      <c r="K184" s="4">
+        <v>4.1531113726033089E-2</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H185" s="3">
+        <v>0</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="J185" s="3">
+        <v>6</v>
+      </c>
+      <c r="K185" s="4">
+        <v>4.1531113726033089E-2</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H186" s="3">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="J186" s="3">
+        <v>62</v>
+      </c>
+      <c r="K186" s="4">
+        <v>0.4291548418356752</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/md_4_2.xlsx
+++ b/data/coded_segments/md_4_2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\amr-db\data\coded_segments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF589E3-24A9-4A49-9D17-AE0987A5B5A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6260" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15528" windowHeight="6306"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +81,7 @@
     <t>mdualeh</t>
   </si>
   <si>
-    <t>8/3/18 19:27:00</t>
+    <t>8/3/2018 19:27:00</t>
   </si>
   <si>
     <t>22121</t>
@@ -100,7 +99,7 @@
     <t>73</t>
   </si>
   <si>
-    <t>8/3/18 19:28:00</t>
+    <t>8/3/2018 19:28:00</t>
   </si>
   <si>
     <t>Patient:Sex</t>
@@ -136,7 +135,7 @@
     <t>61</t>
   </si>
   <si>
-    <t>8/3/18 19:29:00</t>
+    <t>8/3/2018 19:29:00</t>
   </si>
   <si>
     <t>1: 4239</t>
@@ -169,7 +168,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>8/3/18 19:31:00</t>
+    <t>8/3/2018 19:31:00</t>
   </si>
   <si>
     <t>21506</t>
@@ -184,7 +183,7 @@
     <t>First</t>
   </si>
   <si>
-    <t>8/3/18 19:32:00</t>
+    <t>8/3/2018 19:32:00</t>
   </si>
   <si>
     <t>21464</t>
@@ -226,7 +225,7 @@
     <t>amoxicillin</t>
   </si>
   <si>
-    <t>8/3/18 19:33:00</t>
+    <t>8/3/2018 19:33:00</t>
   </si>
   <si>
     <t>1: 1626</t>
@@ -256,7 +255,7 @@
     <t>Actinobaculum schaalii</t>
   </si>
   <si>
-    <t>8/3/18 19:34:00</t>
+    <t>8/3/2018 19:34:00</t>
   </si>
   <si>
     <t>2: 1351</t>
@@ -274,7 +273,7 @@
     <t>2: 1380</t>
   </si>
   <si>
-    <t>8/3/18 19:35:00</t>
+    <t>8/3/2018 19:35:00</t>
   </si>
   <si>
     <t>Location:Country</t>
@@ -322,7 +321,7 @@
     <t>Conclusions</t>
   </si>
   <si>
-    <t>8/3/18 19:36:00</t>
+    <t>8/3/2018 19:36:00</t>
   </si>
   <si>
     <t>Exclusion: not full text article</t>
@@ -361,7 +360,7 @@
     <t>January 2007 through June 2008</t>
   </si>
   <si>
-    <t>8/3/18 19:37:00</t>
+    <t>8/3/2018 19:37:00</t>
   </si>
   <si>
     <t>19444</t>
@@ -391,7 +390,7 @@
     <t>Isolate</t>
   </si>
   <si>
-    <t>8/3/18 19:38:00</t>
+    <t>8/3/2018 19:38:00</t>
   </si>
   <si>
     <t>19121</t>
@@ -418,7 +417,7 @@
     <t>OXA-23-producing</t>
   </si>
   <si>
-    <t>8/3/18 19:39:00</t>
+    <t>8/3/2018 19:39:00</t>
   </si>
   <si>
     <t>18158</t>
@@ -434,7 +433,7 @@
 pneumoniae</t>
   </si>
   <si>
-    <t>8/3/18 19:41:00</t>
+    <t>8/3/2018 19:41:00</t>
   </si>
   <si>
     <t>Bacteria:Strain</t>
@@ -464,7 +463,7 @@
     <t>1: 2330</t>
   </si>
   <si>
-    <t>8/3/18 19:42:00</t>
+    <t>8/3/2018 19:42:00</t>
   </si>
   <si>
     <t>1: 2350</t>
@@ -485,7 +484,7 @@
     <t>23</t>
   </si>
   <si>
-    <t>8/3/18 19:43:00</t>
+    <t>8/3/2018 19:43:00</t>
   </si>
   <si>
     <t>Event month</t>
@@ -552,7 +551,7 @@
 ems</t>
   </si>
   <si>
-    <t>8/3/18 19:44:00</t>
+    <t>8/3/2018 19:44:00</t>
   </si>
   <si>
     <t>2: 1378</t>
@@ -574,7 +573,7 @@
 penem</t>
   </si>
   <si>
-    <t>8/3/18 19:45:00</t>
+    <t>8/3/2018 19:45:00</t>
   </si>
   <si>
     <t>17257</t>
@@ -598,7 +597,7 @@
     <t>50 isolates</t>
   </si>
   <si>
-    <t>8/3/18 19:48:00</t>
+    <t>8/3/2018 19:48:00</t>
   </si>
   <si>
     <t>16713</t>
@@ -613,7 +612,7 @@
     <t>Enterococcus faecium</t>
   </si>
   <si>
-    <t>8/3/18 19:49:00</t>
+    <t>8/3/2018 19:49:00</t>
   </si>
   <si>
     <t>1: 4674</t>
@@ -662,7 +661,7 @@
     <t>58</t>
   </si>
   <si>
-    <t>8/3/18 19:50:00</t>
+    <t>8/3/2018 19:50:00</t>
   </si>
   <si>
     <t>1: 1849</t>
@@ -710,7 +709,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>8/3/18 19:51:00</t>
+    <t>8/3/2018 19:51:00</t>
   </si>
   <si>
     <t>1: 3202</t>
@@ -788,7 +787,7 @@
     <t>died</t>
   </si>
   <si>
-    <t>8/3/18 19:52:00</t>
+    <t>8/3/2018 19:52:00</t>
   </si>
   <si>
     <t>1: 3163</t>
@@ -821,7 +820,7 @@
     <t>first in Malaysia</t>
   </si>
   <si>
-    <t>8/3/18 19:53:00</t>
+    <t>8/3/2018 19:53:00</t>
   </si>
   <si>
     <t>16618</t>
@@ -854,7 +853,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>8/3/18 19:55:00</t>
+    <t>8/3/2018 19:55:00</t>
   </si>
   <si>
     <t>266</t>
@@ -878,7 +877,7 @@
     <t>Helicobacter</t>
   </si>
   <si>
-    <t>8/3/18 19:56:00</t>
+    <t>8/3/2018 19:56:00</t>
   </si>
   <si>
     <t>3325</t>
@@ -905,7 +904,7 @@
     <t>692 isolate</t>
   </si>
   <si>
-    <t>8/3/18 19:57:00</t>
+    <t>8/3/2018 19:57:00</t>
   </si>
   <si>
     <t>5265</t>
@@ -980,7 +979,7 @@
     <t>vision loss</t>
   </si>
   <si>
-    <t>8/3/18 19:58:00</t>
+    <t>8/3/2018 19:58:00</t>
   </si>
   <si>
     <t>1: 4379</t>
@@ -992,7 +991,7 @@
     <t>levofloxacin</t>
   </si>
   <si>
-    <t>8/3/18 19:59:00</t>
+    <t>8/3/2018 19:59:00</t>
   </si>
   <si>
     <t>5500</t>
@@ -1010,7 +1009,7 @@
     <t>LETTERS</t>
   </si>
   <si>
-    <t>8/3/18 20:00:00</t>
+    <t>8/3/2018 20:00:00</t>
   </si>
   <si>
     <t>13804</t>
@@ -1025,7 +1024,7 @@
     <t>Enterococcus gallinarum</t>
   </si>
   <si>
-    <t>8/3/18 20:01:00</t>
+    <t>8/3/2018 20:01:00</t>
   </si>
   <si>
     <t>1: 2235</t>
@@ -1052,7 +1051,7 @@
     <t>cerebrovascular accident</t>
   </si>
   <si>
-    <t>8/3/18 20:02:00</t>
+    <t>8/3/2018 20:02:00</t>
   </si>
   <si>
     <t>1: 2411</t>
@@ -1116,7 +1115,7 @@
     <t>gentamicin</t>
   </si>
   <si>
-    <t>8/3/18 20:03:00</t>
+    <t>8/3/2018 20:03:00</t>
   </si>
   <si>
     <t>MIC</t>
@@ -1161,7 +1160,7 @@
     <t>1: 4431</t>
   </si>
   <si>
-    <t>8/3/18 20:04:00</t>
+    <t>8/3/2018 20:04:00</t>
   </si>
   <si>
     <t>1: 694</t>
@@ -1194,7 +1193,7 @@
     <t>This is the first report of a C. botulinum isolate resistant to penicillins.</t>
   </si>
   <si>
-    <t>8/3/18 20:05:00</t>
+    <t>8/3/2018 20:05:00</t>
   </si>
   <si>
     <t>1: 1051</t>
@@ -1248,7 +1247,7 @@
     <t>b-lactams</t>
   </si>
   <si>
-    <t>8/3/18 20:06:00</t>
+    <t>8/3/2018 20:06:00</t>
   </si>
   <si>
     <t>2: 6459</t>
@@ -1260,7 +1259,7 @@
     <t>224-13</t>
   </si>
   <si>
-    <t>8/3/18 20:07:00</t>
+    <t>8/3/2018 20:07:00</t>
   </si>
   <si>
     <t>3: 4387</t>
@@ -1272,7 +1271,7 @@
     <t>Amoxicillin</t>
   </si>
   <si>
-    <t>8/3/18 20:08:00</t>
+    <t>8/3/2018 20:08:00</t>
   </si>
   <si>
     <t>3: 4401</t>
@@ -1296,7 +1295,7 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>8/3/18 20:10:00</t>
+    <t>8/3/2018 20:10:00</t>
   </si>
   <si>
     <t>1: 280</t>
@@ -1335,7 +1334,7 @@
     <t>Ampicillin</t>
   </si>
   <si>
-    <t>8/3/18 20:11:00</t>
+    <t>8/3/2018 20:11:00</t>
   </si>
   <si>
     <t>2: 6150</t>
@@ -1374,7 +1373,7 @@
     <t>Trimethoprim-sulfamethoxazole</t>
   </si>
   <si>
-    <t>8/3/18 20:12:00</t>
+    <t>8/3/2018 20:12:00</t>
   </si>
   <si>
     <t>2: 6546</t>
@@ -1398,7 +1397,7 @@
     <t>Campylobacter volucris</t>
   </si>
   <si>
-    <t>8/3/18 20:13:00</t>
+    <t>8/3/2018 20:13:00</t>
   </si>
   <si>
     <t>1: 653</t>
@@ -1459,7 +1458,7 @@
     <t>First Case</t>
   </si>
   <si>
-    <t>8/3/18 20:14:00</t>
+    <t>8/3/2018 20:14:00</t>
   </si>
   <si>
     <t>11102</t>
@@ -1474,7 +1473,7 @@
     <t>Antimicrobial susceptibility testing</t>
   </si>
   <si>
-    <t>8/3/18 20:15:00</t>
+    <t>8/3/2018 20:15:00</t>
   </si>
   <si>
     <t>10859</t>
@@ -1483,7 +1482,7 @@
     <t>1: 100</t>
   </si>
   <si>
-    <t>8/3/18 20:32:00</t>
+    <t>8/3/2018 20:32:00</t>
   </si>
   <si>
     <t>9322</t>
@@ -1537,7 +1536,7 @@
     <t>Sonia</t>
   </si>
   <si>
-    <t>10/15/18 14:43:00</t>
+    <t>10/15/2018 14:43:00</t>
   </si>
   <si>
     <t>1: 1865</t>
@@ -1564,7 +1563,7 @@
     <t>1: 1976</t>
   </si>
   <si>
-    <t>10/15/18 14:44:00</t>
+    <t>10/15/2018 14:44:00</t>
   </si>
   <si>
     <t>1: 1983</t>
@@ -1597,7 +1596,7 @@
 reported NDM isolate in Paraná State. </t>
   </si>
   <si>
-    <t>10/15/18 14:46:00</t>
+    <t>10/15/2018 14:46:00</t>
   </si>
   <si>
     <t>1: 66</t>
@@ -1606,7 +1605,7 @@
     <t>Type 25</t>
   </si>
   <si>
-    <t>10/15/18 14:47:00</t>
+    <t>10/15/2018 14:47:00</t>
   </si>
   <si>
     <t>1: 2291</t>
@@ -1619,7 +1618,7 @@
 sistant</t>
   </si>
   <si>
-    <t>10/15/18 14:49:00</t>
+    <t>10/15/2018 14:49:00</t>
   </si>
   <si>
     <t>1: 2413</t>
@@ -1628,7 +1627,7 @@
     <t>1: 2422</t>
   </si>
   <si>
-    <t>10/15/18 14:52:00</t>
+    <t>10/15/2018 14:52:00</t>
   </si>
   <si>
     <t>3: 4366</t>
@@ -1640,7 +1639,7 @@
     <t>Penicillin</t>
   </si>
   <si>
-    <t>11/8/18 11:38:00</t>
+    <t>11/8/2018 11:38:00</t>
   </si>
   <si>
     <t>3: 4379</t>
@@ -1661,7 +1660,7 @@
     <t>Ticarcillin</t>
   </si>
   <si>
-    <t>11/8/18 11:39:00</t>
+    <t>11/8/2018 11:39:00</t>
   </si>
   <si>
     <t>3: 4460</t>
@@ -1703,7 +1702,7 @@
     <t>Kanamycin</t>
   </si>
   <si>
-    <t>11/8/18 11:40:00</t>
+    <t>11/8/2018 11:40:00</t>
   </si>
   <si>
     <t>3: 4744</t>
@@ -1733,7 +1732,7 @@
     <t>Clostridium botulinum</t>
   </si>
   <si>
-    <t>11/8/18 14:29:00</t>
+    <t>11/8/2018 14:29:00</t>
   </si>
   <si>
     <t>2: 2811</t>
@@ -1745,7 +1744,7 @@
     <t>2013</t>
   </si>
   <si>
-    <t>11/12/18 13:33:00</t>
+    <t>11/12/2018 13:33:00</t>
   </si>
   <si>
     <t>2: 2802</t>
@@ -1769,7 +1768,7 @@
     <t>chen</t>
   </si>
   <si>
-    <t>1/29/19 16:47:09</t>
+    <t>1/29/2019 16:47:09</t>
   </si>
   <si>
     <t>1: 1314</t>
@@ -1784,7 +1783,7 @@
     <t>emmamendelsohn</t>
   </si>
   <si>
-    <t>8/22/19 14:19:16</t>
+    <t>8/22/2019 14:19:16</t>
   </si>
   <si>
     <t>1: 1326</t>
@@ -1796,7 +1795,7 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>8/22/19 14:19:20</t>
+    <t>8/22/2019 14:19:20</t>
   </si>
   <si>
     <t>1: 1213</t>
@@ -1809,14 +1808,14 @@
 National Defense Medical Center</t>
   </si>
   <si>
-    <t>8/22/19 14:19:48</t>
+    <t>8/22/2019 14:19:48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1994,7 +1993,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2006,7 +2005,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2053,23 +2052,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2105,23 +2087,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2273,23 +2238,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" customWidth="1"/>
-    <col min="6" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="50.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="13" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.68359375" customWidth="1"/>
+    <col min="2" max="4" width="22.68359375" customWidth="1"/>
+    <col min="5" max="5" width="50.68359375" customWidth="1"/>
+    <col min="6" max="8" width="22.68359375" customWidth="1"/>
+    <col min="9" max="9" width="50.68359375" customWidth="1"/>
+    <col min="10" max="10" width="7.68359375" customWidth="1"/>
+    <col min="11" max="13" width="22.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2371,7 +2336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2412,7 +2377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.6">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2453,7 +2418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.6">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -2494,7 +2459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15.6">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2535,7 +2500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.6">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2576,7 +2541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15.6">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2617,7 +2582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15.6">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2658,7 +2623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15.6">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2699,7 +2664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15.6">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2740,7 +2705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15.6">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2781,7 +2746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15.6">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2822,7 +2787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15.6">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2863,7 +2828,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15.6">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2904,7 +2869,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15.6">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2945,7 +2910,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15.6">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2986,7 +2951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.6">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -3027,7 +2992,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.6">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -3068,7 +3033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.6">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -3109,7 +3074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.6">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -3150,7 +3115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.6">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -3191,7 +3156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.6">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3232,7 +3197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15.6">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -3273,7 +3238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15.6">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -3314,7 +3279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15.6">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -3355,7 +3320,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15.6">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -3396,7 +3361,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15.6">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -3437,7 +3402,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15.6">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -3478,7 +3443,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15.6">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -3519,7 +3484,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="25.8">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -3560,7 +3525,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="15.6">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -3601,7 +3566,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="15.6">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -3642,7 +3607,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="15.6">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -3683,7 +3648,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="15.6">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
@@ -3724,7 +3689,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="15.6">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
@@ -3765,7 +3730,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="15.6">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -3806,7 +3771,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="15.6">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -3847,7 +3812,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="15.6">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -3888,7 +3853,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="15.6">
       <c r="A40" s="6" t="s">
         <v>13</v>
       </c>
@@ -3929,7 +3894,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="15.6">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -3970,7 +3935,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="25.8">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -4011,7 +3976,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="15.6">
       <c r="A43" s="6" t="s">
         <v>13</v>
       </c>
@@ -4052,7 +4017,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="25.8">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
@@ -4093,7 +4058,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="15.6">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -4134,7 +4099,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="15.6">
       <c r="A46" s="6" t="s">
         <v>13</v>
       </c>
@@ -4175,7 +4140,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="15.6">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -4216,7 +4181,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="15.6">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -4257,7 +4222,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="15.6">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
@@ -4298,7 +4263,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="15.6">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -4339,7 +4304,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="25.8">
       <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
@@ -4380,7 +4345,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="15.6">
       <c r="A52" s="6" t="s">
         <v>13</v>
       </c>
@@ -4421,7 +4386,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="15.6">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
@@ -4462,7 +4427,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="15.6">
       <c r="A54" s="6" t="s">
         <v>13</v>
       </c>
@@ -4503,7 +4468,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="15.6">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -4544,7 +4509,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="15.6">
       <c r="A56" s="6" t="s">
         <v>13</v>
       </c>
@@ -4585,7 +4550,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="15.6">
       <c r="A57" s="6" t="s">
         <v>13</v>
       </c>
@@ -4626,7 +4591,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="15.6">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -4667,7 +4632,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="15.6">
       <c r="A59" s="6" t="s">
         <v>13</v>
       </c>
@@ -4708,7 +4673,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="15.6">
       <c r="A60" s="6" t="s">
         <v>13</v>
       </c>
@@ -4749,7 +4714,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="15.6">
       <c r="A61" s="6" t="s">
         <v>13</v>
       </c>
@@ -4790,7 +4755,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="15.6">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
@@ -4831,7 +4796,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="15.6">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -4872,7 +4837,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="15.6">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
@@ -4913,7 +4878,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="15.6">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -4954,7 +4919,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="15.6">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -4995,7 +4960,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="15.6">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
@@ -5036,7 +5001,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="15.6">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -5077,7 +5042,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="15.6">
       <c r="A69" s="6" t="s">
         <v>13</v>
       </c>
@@ -5118,7 +5083,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="15.6">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
@@ -5159,7 +5124,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="15.6">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
@@ -5200,7 +5165,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="15.6">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -5241,7 +5206,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="15.6">
       <c r="A73" s="6" t="s">
         <v>13</v>
       </c>
@@ -5282,7 +5247,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="15.6">
       <c r="A74" s="6" t="s">
         <v>13</v>
       </c>
@@ -5323,7 +5288,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="15.6">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -5364,7 +5329,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="15.6">
       <c r="A76" s="6" t="s">
         <v>13</v>
       </c>
@@ -5405,7 +5370,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="15.6">
       <c r="A77" s="6" t="s">
         <v>13</v>
       </c>
@@ -5446,7 +5411,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="15.6">
       <c r="A78" s="6" t="s">
         <v>13</v>
       </c>
@@ -5487,7 +5452,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="15.6">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -5528,7 +5493,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="15.6">
       <c r="A80" s="6" t="s">
         <v>13</v>
       </c>
@@ -5569,7 +5534,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="15.6">
       <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
@@ -5610,7 +5575,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="15.6">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -5651,7 +5616,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="15.6">
       <c r="A83" s="6" t="s">
         <v>13</v>
       </c>
@@ -5692,7 +5657,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="15.6">
       <c r="A84" s="6" t="s">
         <v>13</v>
       </c>
@@ -5733,7 +5698,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="15.6">
       <c r="A85" s="6" t="s">
         <v>13</v>
       </c>
@@ -5774,7 +5739,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="15.6">
       <c r="A86" s="6" t="s">
         <v>13</v>
       </c>
@@ -5815,7 +5780,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="15.6">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -5856,7 +5821,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="15.6">
       <c r="A88" s="6" t="s">
         <v>13</v>
       </c>
@@ -5897,7 +5862,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="15.6">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
@@ -5938,7 +5903,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="15.6">
       <c r="A90" s="6" t="s">
         <v>13</v>
       </c>
@@ -5979,7 +5944,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="15.6">
       <c r="A91" s="6" t="s">
         <v>13</v>
       </c>
@@ -6020,7 +5985,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="15.6">
       <c r="A92" s="6" t="s">
         <v>13</v>
       </c>
@@ -6061,7 +6026,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="15.6">
       <c r="A93" s="6" t="s">
         <v>13</v>
       </c>
@@ -6102,7 +6067,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="15.6">
       <c r="A94" s="6" t="s">
         <v>13</v>
       </c>
@@ -6143,7 +6108,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="15.6">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -6184,7 +6149,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="25.8">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -6225,7 +6190,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="15.6">
       <c r="A97" s="6" t="s">
         <v>13</v>
       </c>
@@ -6266,7 +6231,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="15.6">
       <c r="A98" s="6" t="s">
         <v>13</v>
       </c>
@@ -6307,7 +6272,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="15.6">
       <c r="A99" s="6" t="s">
         <v>13</v>
       </c>
@@ -6348,7 +6313,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="15.6">
       <c r="A100" s="6" t="s">
         <v>13</v>
       </c>
@@ -6389,7 +6354,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="15.6">
       <c r="A101" s="6" t="s">
         <v>13</v>
       </c>
@@ -6430,7 +6395,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="15.6">
       <c r="A102" s="6" t="s">
         <v>13</v>
       </c>
@@ -6471,7 +6436,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="15.6">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -6512,7 +6477,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="15.6">
       <c r="A104" s="6" t="s">
         <v>13</v>
       </c>
@@ -6553,7 +6518,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="15.6">
       <c r="A105" s="6" t="s">
         <v>13</v>
       </c>
@@ -6594,7 +6559,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="15.6">
       <c r="A106" s="6" t="s">
         <v>13</v>
       </c>
@@ -6635,7 +6600,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="15.6">
       <c r="A107" s="6" t="s">
         <v>13</v>
       </c>
@@ -6676,7 +6641,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="15.6">
       <c r="A108" s="6" t="s">
         <v>13</v>
       </c>
@@ -6717,7 +6682,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="15.6">
       <c r="A109" s="6" t="s">
         <v>13</v>
       </c>
@@ -6758,7 +6723,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="15.6">
       <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
@@ -6799,7 +6764,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="15.6">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -6840,7 +6805,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="15.6">
       <c r="A112" s="6" t="s">
         <v>13</v>
       </c>
@@ -6881,7 +6846,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="15.6">
       <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
@@ -6922,7 +6887,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="15.6">
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
@@ -6963,7 +6928,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="15.6">
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
@@ -7004,7 +6969,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="15.6">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
@@ -7045,7 +7010,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="15.6">
       <c r="A117" s="6" t="s">
         <v>13</v>
       </c>
@@ -7086,7 +7051,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="15.6">
       <c r="A118" s="6" t="s">
         <v>13</v>
       </c>
@@ -7127,7 +7092,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="15.6">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -7168,7 +7133,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="15.6">
       <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
@@ -7209,7 +7174,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="15.6">
       <c r="A121" s="6" t="s">
         <v>13</v>
       </c>
@@ -7250,7 +7215,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="15.6">
       <c r="A122" s="6" t="s">
         <v>13</v>
       </c>
@@ -7291,7 +7256,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="15.6">
       <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
@@ -7332,7 +7297,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="15.6">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
@@ -7373,7 +7338,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="15.6">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
@@ -7414,7 +7379,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="15.6">
       <c r="A126" s="6" t="s">
         <v>13</v>
       </c>
@@ -7455,7 +7420,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="15.6">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -7496,7 +7461,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="15.6">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
@@ -7537,7 +7502,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="15.6">
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
@@ -7578,7 +7543,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="15.6">
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
@@ -7619,7 +7584,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="15.6">
       <c r="A131" s="6" t="s">
         <v>13</v>
       </c>
@@ -7660,7 +7625,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="15.6">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
@@ -7701,7 +7666,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="15.6">
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
@@ -7742,7 +7707,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="15.6">
       <c r="A134" s="6" t="s">
         <v>13</v>
       </c>
@@ -7783,7 +7748,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="15.6">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -7824,7 +7789,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="15.6">
       <c r="A136" s="6" t="s">
         <v>13</v>
       </c>
@@ -7865,7 +7830,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="15.6">
       <c r="A137" s="6" t="s">
         <v>13</v>
       </c>
@@ -7906,7 +7871,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="15.6">
       <c r="A138" s="6" t="s">
         <v>13</v>
       </c>
@@ -7947,7 +7912,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="15.6">
       <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
@@ -7988,7 +7953,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="25.8">
       <c r="A140" s="6" t="s">
         <v>13</v>
       </c>
@@ -8029,7 +7994,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="15.6">
       <c r="A141" s="6" t="s">
         <v>13</v>
       </c>
@@ -8070,7 +8035,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="15.6">
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
@@ -8111,7 +8076,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="15.6">
       <c r="A143" s="6" t="s">
         <v>13</v>
       </c>
@@ -8152,7 +8117,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="15.6">
       <c r="A144" s="6" t="s">
         <v>13</v>
       </c>
@@ -8193,7 +8158,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="15.6">
       <c r="A145" s="6" t="s">
         <v>13</v>
       </c>
@@ -8234,7 +8199,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="15.6">
       <c r="A146" s="6" t="s">
         <v>13</v>
       </c>
@@ -8275,7 +8240,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="15.6">
       <c r="A147" s="6" t="s">
         <v>13</v>
       </c>
@@ -8316,7 +8281,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="15.6">
       <c r="A148" s="6" t="s">
         <v>13</v>
       </c>
@@ -8357,7 +8322,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="15.6">
       <c r="A149" s="6" t="s">
         <v>13</v>
       </c>
@@ -8398,7 +8363,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="15.6">
       <c r="A150" s="6" t="s">
         <v>13</v>
       </c>
@@ -8439,7 +8404,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="15.6">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
@@ -8480,7 +8445,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="15.6">
       <c r="A152" s="6" t="s">
         <v>13</v>
       </c>
@@ -8521,7 +8486,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="15.6">
       <c r="A153" s="6" t="s">
         <v>13</v>
       </c>
@@ -8562,7 +8527,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="15.6">
       <c r="A154" s="6" t="s">
         <v>13</v>
       </c>
@@ -8603,7 +8568,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="15.6">
       <c r="A155" s="6" t="s">
         <v>13</v>
       </c>
@@ -8644,7 +8609,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="15.6">
       <c r="A156" s="6" t="s">
         <v>13</v>
       </c>
@@ -8685,7 +8650,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="15.6">
       <c r="A157" s="6" t="s">
         <v>13</v>
       </c>
@@ -8726,7 +8691,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="51.6">
       <c r="A158" s="6" t="s">
         <v>13</v>
       </c>
@@ -8767,7 +8732,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="15.6">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -8808,7 +8773,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="25.8">
       <c r="A160" s="6" t="s">
         <v>13</v>
       </c>
@@ -8849,7 +8814,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="15.6">
       <c r="A161" s="6" t="s">
         <v>13</v>
       </c>
@@ -8890,7 +8855,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="15.6">
       <c r="A162" s="6" t="s">
         <v>13</v>
       </c>
@@ -8931,7 +8896,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="15.6">
       <c r="A163" s="6" t="s">
         <v>13</v>
       </c>
@@ -8972,7 +8937,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="15.6">
       <c r="A164" s="6" t="s">
         <v>13</v>
       </c>
@@ -9013,7 +8978,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="15.6">
       <c r="A165" s="6" t="s">
         <v>13</v>
       </c>
@@ -9054,7 +9019,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="15.6">
       <c r="A166" s="6" t="s">
         <v>13</v>
       </c>
@@ -9095,7 +9060,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="15.6">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -9136,7 +9101,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="15.6">
       <c r="A168" s="6" t="s">
         <v>13</v>
       </c>
@@ -9177,7 +9142,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="15.6">
       <c r="A169" s="6" t="s">
         <v>13</v>
       </c>
@@ -9218,7 +9183,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="15.6">
       <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
@@ -9259,7 +9224,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="15.6">
       <c r="A171" s="6" t="s">
         <v>13</v>
       </c>
@@ -9300,7 +9265,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="15.6">
       <c r="A172" s="6" t="s">
         <v>13</v>
       </c>
@@ -9341,7 +9306,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="15.6">
       <c r="A173" s="6" t="s">
         <v>13</v>
       </c>
@@ -9382,7 +9347,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="15.6">
       <c r="A174" s="6" t="s">
         <v>13</v>
       </c>
@@ -9423,7 +9388,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="15.6">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -9464,7 +9429,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="15.6">
       <c r="A176" s="6" t="s">
         <v>13</v>
       </c>
@@ -9505,7 +9470,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="15.6">
       <c r="A177" s="6" t="s">
         <v>13</v>
       </c>
@@ -9546,7 +9511,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="15.6">
       <c r="A178" s="6" t="s">
         <v>13</v>
       </c>
@@ -9587,7 +9552,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="15.6">
       <c r="A179" s="6" t="s">
         <v>13</v>
       </c>
@@ -9628,7 +9593,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="15.6">
       <c r="A180" s="6" t="s">
         <v>13</v>
       </c>
@@ -9669,7 +9634,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="15.6">
       <c r="A181" s="6" t="s">
         <v>13</v>
       </c>
@@ -9710,7 +9675,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="15.6">
       <c r="A182" s="6" t="s">
         <v>13</v>
       </c>
@@ -9751,7 +9716,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="15.6">
       <c r="A183" s="6" t="s">
         <v>13</v>
       </c>
@@ -9792,7 +9757,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="15.6">
       <c r="A184" s="6" t="s">
         <v>13</v>
       </c>
@@ -9833,7 +9798,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="15.6">
       <c r="A185" s="6" t="s">
         <v>13</v>
       </c>
@@ -9874,7 +9839,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="25.8">
       <c r="A186" s="6" t="s">
         <v>13</v>
       </c>
